--- a/testcase/测试计划.xlsx
+++ b/testcase/测试计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudewei/develop/qtProjects/FundFileReader/testcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudewei/develop/qtProjects/FFReader/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D3344D-4E90-4B47-86C2-F98F10B3A03D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44976716-FB0C-3A41-92CF-0D7C59F86DAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20340" xr2:uid="{532B81D8-4905-B345-A375-AEE1DF6B4775}"/>
+    <workbookView xWindow="3660" yWindow="1040" windowWidth="28800" windowHeight="18600" xr2:uid="{532B81D8-4905-B345-A375-AEE1DF6B4775}"/>
   </bookViews>
   <sheets>
     <sheet name="OFD文件测试案例" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>测试案例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>案例注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准文件测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试一个标准的有数据的OFD文件，校验程序的基本解析能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文件测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试500M的01/03/02/04文件，校验程序的大文件解析能力，内存占用情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试是否可以正常打开展示使用空格填充数值型字段的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试是否可以正常读取配置文件里的销售商代码等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试是否可以正常检查OFD文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件打开功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件检查功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送方接收方信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值列填充空格的兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试是否在macOS/windows常见版本下文件打开按钮正常，可以选择打开文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件拖拽打开功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是否可以拖拽文件到软件图标或者窗口打开文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件重新打开功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开文件后，按F5看是否可以重新加载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件保存功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑文件后，看是否可以正常保存文件，且生成备份数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件另存功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑文件后，看是否可以正常进行文件另存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -109,6 +189,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,126 +513,166 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B27" sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
